--- a/dados/dinamicas.xlsx
+++ b/dados/dinamicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61b286e7b92e5b7e/Documentos/autopesquisa-voluntariado-relatorio-2025/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{2F9151DA-7353-46D4-9380-8E0141C93570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ECA505F-1318-474E-8774-C86BA6C09803}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{2F9151DA-7353-46D4-9380-8E0141C93570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C53A85F-0DFD-4D3D-A5AF-642A9ADBD7A7}"/>
   <bookViews>
-    <workbookView xWindow="18585" yWindow="-17385" windowWidth="22125" windowHeight="15705" xr2:uid="{3721D262-72AC-4BFD-A7C5-57C45CB84BFB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" xr2:uid="{3721D262-72AC-4BFD-A7C5-57C45CB84BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="dinamicas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Dinâmica Interassistencial de Paracirurgia</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4377BF05-070A-4E36-9985-72C5F0726BD4}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1311,11 +1314,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1323,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1331,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1339,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1347,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1355,14 +1361,22 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>41</v>
       </c>
     </row>
